--- a/Analysis & Profiles/Colonial Pkwy 2017-1026/Output_2025A2.xlsx
+++ b/Analysis & Profiles/Colonial Pkwy 2017-1026/Output_2025A2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\D5-Colonial Parkway 2017\900 CAD GIS Modeling\940 Modeling\Colonial_Pkwy\Analysis &amp; Profiles\Colonial Pkwy 2017-1025_NB&amp;BLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\D5-Colonial Parkway 2017\900 CAD GIS Modeling\940 Modeling\Colonial_Pkwy\Analysis &amp; Profiles\Colonial Pkwy 2017-1026\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1588,13 +1588,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="38">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C6" s="39">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D6" s="40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="40">
         <v>9</v>
@@ -1603,10 +1603,10 @@
         <v>822</v>
       </c>
       <c r="G6" s="42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H6" s="43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I6" s="44">
         <v>0.23</v>
@@ -1644,13 +1644,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="38">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C7" s="39">
         <v>197</v>
       </c>
       <c r="D7" s="40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="40">
         <v>7</v>
@@ -1659,10 +1659,10 @@
         <v>542</v>
       </c>
       <c r="G7" s="42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H7" s="43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I7" s="48">
         <v>0.14000000000000001</v>
@@ -1700,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="38">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C8" s="39">
         <v>174</v>
@@ -1715,10 +1715,10 @@
         <v>437</v>
       </c>
       <c r="G8" s="42">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H8" s="43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I8" s="48">
         <v>0.1</v>
@@ -1756,13 +1756,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="38">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C9" s="39">
         <v>179</v>
       </c>
       <c r="D9" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="40">
         <v>6</v>
@@ -1771,10 +1771,10 @@
         <v>383</v>
       </c>
       <c r="G9" s="42">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H9" s="43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I9" s="48">
         <v>0.08</v>
@@ -1815,22 +1815,22 @@
         <v>240</v>
       </c>
       <c r="C10" s="39">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D10" s="40">
         <v>8</v>
       </c>
       <c r="E10" s="40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="41">
         <v>676</v>
       </c>
       <c r="G10" s="42">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H10" s="43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I10" s="48">
         <v>0.1</v>
@@ -1868,25 +1868,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="38">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C11" s="39">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="D11" s="40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="40">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="41">
         <v>1944</v>
       </c>
       <c r="G11" s="42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" s="48">
         <v>0.27</v>
@@ -1924,43 +1924,43 @@
         <v>22</v>
       </c>
       <c r="B12" s="38">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="C12" s="39">
-        <v>2497</v>
+        <v>2509</v>
       </c>
       <c r="D12" s="40">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E12" s="40">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="F12" s="41">
         <v>4675</v>
       </c>
       <c r="G12" s="42">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H12" s="43">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="I12" s="48">
         <v>0.61</v>
       </c>
       <c r="J12" s="49">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K12" s="42">
         <v>0.02</v>
       </c>
       <c r="L12" s="43">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="M12" s="48">
         <v>44.9</v>
       </c>
       <c r="N12" s="49">
-        <v>19.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="O12" s="42">
         <v>65</v>
@@ -1980,25 +1980,25 @@
         <v>23</v>
       </c>
       <c r="B13" s="53">
-        <v>1799</v>
+        <v>1811</v>
       </c>
       <c r="C13" s="54">
-        <v>2490</v>
+        <v>2505</v>
       </c>
       <c r="D13" s="55">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E13" s="55">
-        <v>1596</v>
+        <v>1582</v>
       </c>
       <c r="F13" s="56">
-        <v>6109</v>
+        <v>6110</v>
       </c>
       <c r="G13" s="57">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H13" s="58">
-        <v>39.1</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I13" s="59">
         <v>0.75</v>
@@ -2016,7 +2016,7 @@
         <v>44.8</v>
       </c>
       <c r="N13" s="60">
-        <v>20.100000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="O13" s="57">
         <v>65</v>
@@ -2036,31 +2036,31 @@
         <v>24</v>
       </c>
       <c r="B14" s="53">
-        <v>1824</v>
+        <v>1836</v>
       </c>
       <c r="C14" s="54">
-        <v>2448</v>
+        <v>2463</v>
       </c>
       <c r="D14" s="55">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E14" s="55">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="F14" s="56">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="G14" s="57">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="H14" s="58">
-        <v>37</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I14" s="59">
         <v>0.76</v>
       </c>
       <c r="J14" s="60">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K14" s="57">
         <v>0.06</v>
@@ -2072,7 +2072,7 @@
         <v>44.8</v>
       </c>
       <c r="N14" s="60">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="O14" s="57">
         <v>65</v>
@@ -2092,25 +2092,25 @@
         <v>25</v>
       </c>
       <c r="B15" s="53">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="C15" s="54">
-        <v>2056</v>
+        <v>2072</v>
       </c>
       <c r="D15" s="55">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E15" s="55">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="F15" s="56">
         <v>4630</v>
       </c>
       <c r="G15" s="57">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="H15" s="58">
-        <v>23.5</v>
+        <v>22.9</v>
       </c>
       <c r="I15" s="59">
         <v>0.71</v>
@@ -2122,13 +2122,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L15" s="58">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="M15" s="59">
         <v>44.9</v>
       </c>
       <c r="N15" s="60">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="O15" s="57">
         <v>65</v>
@@ -2148,28 +2148,28 @@
         <v>26</v>
       </c>
       <c r="B16" s="38">
-        <v>1786</v>
+        <v>1792</v>
       </c>
       <c r="C16" s="39">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D16" s="40">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E16" s="40">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F16" s="41">
         <v>4150</v>
       </c>
       <c r="G16" s="42">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="H16" s="43">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="I16" s="48">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J16" s="49">
         <v>0.84</v>
@@ -2204,31 +2204,31 @@
         <v>27</v>
       </c>
       <c r="B17" s="38">
-        <v>1941</v>
+        <v>1951</v>
       </c>
       <c r="C17" s="39">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="D17" s="40">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E17" s="40">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F17" s="41">
         <v>4425</v>
       </c>
       <c r="G17" s="42">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H17" s="43">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I17" s="48">
         <v>0.81</v>
       </c>
       <c r="J17" s="49">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K17" s="42">
         <v>0.06</v>
@@ -2240,7 +2240,7 @@
         <v>44.7</v>
       </c>
       <c r="N17" s="49">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="O17" s="42">
         <v>65</v>
@@ -2260,43 +2260,43 @@
         <v>28</v>
       </c>
       <c r="B18" s="38">
-        <v>2116</v>
+        <v>2127</v>
       </c>
       <c r="C18" s="39">
-        <v>1947</v>
+        <v>1958</v>
       </c>
       <c r="D18" s="40">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E18" s="40">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F18" s="41">
         <v>4676</v>
       </c>
       <c r="G18" s="42">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="H18" s="43">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I18" s="48">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J18" s="49">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K18" s="42">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="L18" s="43">
         <v>0.08</v>
       </c>
       <c r="M18" s="48">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="N18" s="49">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="O18" s="42">
         <v>65</v>
@@ -2316,25 +2316,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="38">
-        <v>2135</v>
+        <v>2146</v>
       </c>
       <c r="C19" s="39">
-        <v>1959</v>
+        <v>1971</v>
       </c>
       <c r="D19" s="40">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E19" s="40">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F19" s="41">
         <v>4720</v>
       </c>
       <c r="G19" s="42">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H19" s="43">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="I19" s="48">
         <v>0.89</v>
@@ -2346,10 +2346,10 @@
         <v>0.09</v>
       </c>
       <c r="L19" s="43">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M19" s="48">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="N19" s="49">
         <v>44.6</v>
@@ -2372,25 +2372,25 @@
         <v>30</v>
       </c>
       <c r="B20" s="38">
-        <v>2366</v>
+        <v>2376</v>
       </c>
       <c r="C20" s="39">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="D20" s="40">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E20" s="40">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F20" s="41">
         <v>4951</v>
       </c>
       <c r="G20" s="42">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="H20" s="43">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I20" s="48">
         <v>0.99</v>
@@ -2402,10 +2402,10 @@
         <v>0.1</v>
       </c>
       <c r="L20" s="43">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M20" s="48">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="N20" s="49">
         <v>44.5</v>
@@ -2428,40 +2428,40 @@
         <v>31</v>
       </c>
       <c r="B21" s="38">
-        <v>2292</v>
+        <v>2306</v>
       </c>
       <c r="C21" s="39">
-        <v>1913</v>
+        <v>1926</v>
       </c>
       <c r="D21" s="40">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="E21" s="40">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F21" s="41">
         <v>5408</v>
       </c>
       <c r="G21" s="42">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="H21" s="43">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="I21" s="48">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J21" s="49">
         <v>0.8</v>
       </c>
       <c r="K21" s="42">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="L21" s="43">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M21" s="48">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="N21" s="49">
         <v>44.7</v>
@@ -2484,43 +2484,43 @@
         <v>32</v>
       </c>
       <c r="B22" s="53">
-        <v>2554</v>
+        <v>2570</v>
       </c>
       <c r="C22" s="54">
-        <v>2078</v>
+        <v>2097</v>
       </c>
       <c r="D22" s="55">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="E22" s="55">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="F22" s="56">
         <v>6720</v>
       </c>
       <c r="G22" s="57">
-        <v>39.299999999999997</v>
+        <v>38.9</v>
       </c>
       <c r="H22" s="58">
-        <v>17.3</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I22" s="59">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J22" s="60">
         <v>0.87</v>
       </c>
       <c r="K22" s="57">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="L22" s="58">
         <v>0.12</v>
       </c>
       <c r="M22" s="59">
-        <v>18.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="N22" s="60">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="O22" s="57">
         <v>64.900000000000006</v>
@@ -2540,43 +2540,43 @@
         <v>33</v>
       </c>
       <c r="B23" s="53">
-        <v>2589</v>
+        <v>2604</v>
       </c>
       <c r="C23" s="54">
-        <v>2143</v>
+        <v>2161</v>
       </c>
       <c r="D23" s="55">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="E23" s="55">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F23" s="56">
         <v>7030</v>
       </c>
       <c r="G23" s="57">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="H23" s="58">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I23" s="59">
         <v>1.08</v>
       </c>
       <c r="J23" s="60">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K23" s="57">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="58">
         <v>0.13</v>
       </c>
       <c r="M23" s="59">
-        <v>17.2</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="N23" s="60">
-        <v>42.6</v>
+        <v>41.5</v>
       </c>
       <c r="O23" s="57">
         <v>64.900000000000006</v>
@@ -2596,28 +2596,28 @@
         <v>34</v>
       </c>
       <c r="B24" s="53">
-        <v>2765</v>
+        <v>2780</v>
       </c>
       <c r="C24" s="54">
-        <v>2296</v>
+        <v>2309</v>
       </c>
       <c r="D24" s="55">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="E24" s="55">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F24" s="56">
-        <v>6456</v>
+        <v>6455</v>
       </c>
       <c r="G24" s="57">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="H24" s="58">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="I24" s="59">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J24" s="60">
         <v>0.96</v>
@@ -2629,10 +2629,10 @@
         <v>0.08</v>
       </c>
       <c r="M24" s="59">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="N24" s="60">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="O24" s="57">
         <v>65</v>
@@ -2652,25 +2652,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="38">
-        <v>2376</v>
+        <v>2383</v>
       </c>
       <c r="C25" s="39">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="D25" s="40">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E25" s="40">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F25" s="41">
         <v>4425</v>
       </c>
       <c r="G25" s="42">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="H25" s="43">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="I25" s="48">
         <v>0.99</v>
@@ -2685,7 +2685,7 @@
         <v>0.02</v>
       </c>
       <c r="M25" s="48">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="N25" s="49">
         <v>44.8</v>
@@ -2708,28 +2708,28 @@
         <v>36</v>
       </c>
       <c r="B26" s="38">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="C26" s="39">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D26" s="40">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E26" s="40">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="41">
         <v>3379</v>
       </c>
       <c r="G26" s="42">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H26" s="43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I26" s="48">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J26" s="49">
         <v>0.51</v>
@@ -2764,25 +2764,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="38">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C27" s="39">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D27" s="40">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="40">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="41">
         <v>2806</v>
       </c>
       <c r="G27" s="42">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H27" s="43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I27" s="48">
         <v>0.71</v>
@@ -2820,31 +2820,31 @@
         <v>38</v>
       </c>
       <c r="B28" s="38">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C28" s="39">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D28" s="40">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="40">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="41">
         <v>2157</v>
       </c>
       <c r="G28" s="42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H28" s="43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I28" s="48">
         <v>0.54</v>
       </c>
       <c r="J28" s="49">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="K28" s="42">
         <v>0.01</v>
@@ -2876,25 +2876,25 @@
         <v>39</v>
       </c>
       <c r="B29" s="63">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C29" s="64">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D29" s="65">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="66">
         <v>1476</v>
       </c>
       <c r="G29" s="67">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H29" s="68">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I29" s="69">
         <v>0.38</v>
@@ -2906,7 +2906,7 @@
         <v>0.01</v>
       </c>
       <c r="L29" s="68">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M29" s="69">
         <v>45</v>
@@ -2932,25 +2932,25 @@
         <v>40</v>
       </c>
       <c r="B30" s="73">
-        <v>37819</v>
+        <v>37991</v>
       </c>
       <c r="C30" s="74">
-        <v>35505</v>
+        <v>35690</v>
       </c>
       <c r="D30" s="75">
-        <v>8072</v>
+        <v>7901</v>
       </c>
       <c r="E30" s="75">
-        <v>7545</v>
+        <v>7361</v>
       </c>
       <c r="F30" s="76">
-        <v>88941</v>
+        <v>88944</v>
       </c>
       <c r="G30" s="77">
-        <v>17.600000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="H30" s="78">
-        <v>17.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="I30" s="79"/>
       <c r="J30" s="79"/>
@@ -2962,7 +2962,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="80">
-        <v>73324</v>
+        <v>73681</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="80">
-        <v>15618</v>
+        <v>15263</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2978,7 +2978,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="80">
-        <v>88941</v>
+        <v>88944</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3295,13 +3295,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="38">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C51" s="39">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D51" s="40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="40">
         <v>7</v>
@@ -3310,10 +3310,10 @@
         <v>540</v>
       </c>
       <c r="G51" s="42">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H51" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I51" s="44">
         <v>0.15</v>
@@ -3357,19 +3357,19 @@
         <v>131</v>
       </c>
       <c r="D52" s="40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" s="41">
         <v>355</v>
       </c>
       <c r="G52" s="42">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H52" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I52" s="48">
         <v>0.09</v>
@@ -3407,13 +3407,13 @@
         <v>18</v>
       </c>
       <c r="B53" s="38">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="39">
         <v>116</v>
       </c>
       <c r="D53" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="40">
         <v>5</v>
@@ -3422,10 +3422,10 @@
         <v>286</v>
       </c>
       <c r="G53" s="42">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H53" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I53" s="48">
         <v>7.0000000000000007E-2</v>
@@ -3478,10 +3478,10 @@
         <v>251</v>
       </c>
       <c r="G54" s="42">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H54" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I54" s="48">
         <v>0.05</v>
@@ -3519,25 +3519,25 @@
         <v>20</v>
       </c>
       <c r="B55" s="38">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" s="39">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D55" s="40">
         <v>6</v>
       </c>
       <c r="E55" s="40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="41">
         <v>440</v>
       </c>
       <c r="G55" s="42">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H55" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I55" s="48">
         <v>0.06</v>
@@ -3575,25 +3575,25 @@
         <v>21</v>
       </c>
       <c r="B56" s="38">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C56" s="39">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D56" s="40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" s="40">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F56" s="41">
         <v>1264</v>
       </c>
       <c r="G56" s="42">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H56" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I56" s="48">
         <v>0.16</v>
@@ -3631,37 +3631,37 @@
         <v>22</v>
       </c>
       <c r="B57" s="38">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="C57" s="39">
-        <v>1604</v>
+        <v>1620</v>
       </c>
       <c r="D57" s="40">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E57" s="40">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F57" s="41">
         <v>3164</v>
       </c>
       <c r="G57" s="42">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H57" s="43">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="I57" s="48">
         <v>0.44</v>
       </c>
       <c r="J57" s="49">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="K57" s="42">
         <v>0.02</v>
       </c>
       <c r="L57" s="43">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="M57" s="48">
         <v>45</v>
@@ -3687,40 +3687,40 @@
         <v>23</v>
       </c>
       <c r="B58" s="53">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="C58" s="54">
-        <v>1558</v>
+        <v>1581</v>
       </c>
       <c r="D58" s="55">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E58" s="55">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="F58" s="56">
         <v>4006</v>
       </c>
       <c r="G58" s="57">
-        <v>15.9</v>
+        <v>14.8</v>
       </c>
       <c r="H58" s="58">
-        <v>39.9</v>
+        <v>39</v>
       </c>
       <c r="I58" s="59">
         <v>0.5</v>
       </c>
       <c r="J58" s="60">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="K58" s="57">
         <v>0.06</v>
       </c>
       <c r="L58" s="58">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M58" s="59">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="N58" s="60">
         <v>44.9</v>
@@ -3743,37 +3743,37 @@
         <v>24</v>
       </c>
       <c r="B59" s="53">
-        <v>1231</v>
+        <v>1247</v>
       </c>
       <c r="C59" s="54">
-        <v>1537</v>
+        <v>1561</v>
       </c>
       <c r="D59" s="55">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E59" s="55">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="F59" s="56">
         <v>3937</v>
       </c>
       <c r="G59" s="57">
-        <v>16</v>
+        <v>14.9</v>
       </c>
       <c r="H59" s="58">
-        <v>37.799999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="I59" s="59">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="J59" s="60">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="K59" s="57">
         <v>0.06</v>
       </c>
       <c r="L59" s="58">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M59" s="59">
         <v>44.9</v>
@@ -3799,28 +3799,28 @@
         <v>25</v>
       </c>
       <c r="B60" s="53">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="C60" s="54">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="D60" s="55">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E60" s="55">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="F60" s="56">
         <v>2951</v>
       </c>
       <c r="G60" s="57">
-        <v>16.399999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="H60" s="58">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="I60" s="59">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="J60" s="60">
         <v>0.56999999999999995</v>
@@ -3855,31 +3855,31 @@
         <v>26</v>
       </c>
       <c r="B61" s="38">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="C61" s="39">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="D61" s="40">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E61" s="40">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F61" s="41">
         <v>2687</v>
       </c>
       <c r="G61" s="42">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="H61" s="43">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="I61" s="48">
         <v>0.46</v>
       </c>
       <c r="J61" s="49">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K61" s="42">
         <v>0.03</v>
@@ -3911,31 +3911,31 @@
         <v>27</v>
       </c>
       <c r="B62" s="38">
-        <v>1191</v>
+        <v>1202</v>
       </c>
       <c r="C62" s="39">
-        <v>1278</v>
+        <v>1291</v>
       </c>
       <c r="D62" s="40">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E62" s="40">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F62" s="41">
         <v>2861</v>
       </c>
       <c r="G62" s="42">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="H62" s="43">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="I62" s="48">
         <v>0.5</v>
       </c>
       <c r="J62" s="49">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="K62" s="42">
         <v>0.05</v>
@@ -3944,7 +3944,7 @@
         <v>0.06</v>
       </c>
       <c r="M62" s="48">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="N62" s="49">
         <v>44.9</v>
@@ -3967,31 +3967,31 @@
         <v>28</v>
       </c>
       <c r="B63" s="38">
-        <v>1313</v>
+        <v>1326</v>
       </c>
       <c r="C63" s="39">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="D63" s="40">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E63" s="40">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F63" s="41">
         <v>3027</v>
       </c>
       <c r="G63" s="42">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="H63" s="43">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="I63" s="48">
         <v>0.55000000000000004</v>
       </c>
       <c r="J63" s="49">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="K63" s="42">
         <v>0.06</v>
@@ -4023,28 +4023,28 @@
         <v>29</v>
       </c>
       <c r="B64" s="38">
-        <v>1324</v>
+        <v>1338</v>
       </c>
       <c r="C64" s="39">
-        <v>1284</v>
+        <v>1297</v>
       </c>
       <c r="D64" s="40">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E64" s="40">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F64" s="41">
         <v>3056</v>
       </c>
       <c r="G64" s="42">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="H64" s="43">
-        <v>14.7</v>
+        <v>13.8</v>
       </c>
       <c r="I64" s="48">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J64" s="49">
         <v>0.54</v>
@@ -4079,34 +4079,34 @@
         <v>30</v>
       </c>
       <c r="B65" s="38">
-        <v>1498</v>
+        <v>1511</v>
       </c>
       <c r="C65" s="39">
-        <v>1305</v>
+        <v>1315</v>
       </c>
       <c r="D65" s="40">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E65" s="40">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F65" s="41">
         <v>3199</v>
       </c>
       <c r="G65" s="42">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="H65" s="43">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="I65" s="48">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="J65" s="49">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K65" s="42">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L65" s="43">
         <v>0.04</v>
@@ -4135,28 +4135,28 @@
         <v>31</v>
       </c>
       <c r="B66" s="38">
-        <v>1441</v>
+        <v>1461</v>
       </c>
       <c r="C66" s="39">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="D66" s="40">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E66" s="40">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F66" s="41">
         <v>3439</v>
       </c>
       <c r="G66" s="42">
-        <v>26.1</v>
+        <v>25</v>
       </c>
       <c r="H66" s="43">
-        <v>20.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="I66" s="48">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="J66" s="49">
         <v>0.5</v>
@@ -4171,7 +4171,7 @@
         <v>44.9</v>
       </c>
       <c r="N66" s="49">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="O66" s="42">
         <v>65</v>
@@ -4191,34 +4191,34 @@
         <v>32</v>
       </c>
       <c r="B67" s="53">
-        <v>1665</v>
+        <v>1691</v>
       </c>
       <c r="C67" s="54">
-        <v>1429</v>
+        <v>1452</v>
       </c>
       <c r="D67" s="55">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="E67" s="55">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="F67" s="56">
         <v>4641</v>
       </c>
       <c r="G67" s="57">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="H67" s="58">
-        <v>20.8</v>
+        <v>19.5</v>
       </c>
       <c r="I67" s="59">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="J67" s="60">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K67" s="57">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="L67" s="58">
         <v>0.1</v>
@@ -4247,34 +4247,34 @@
         <v>33</v>
       </c>
       <c r="B68" s="53">
-        <v>1680</v>
+        <v>1707</v>
       </c>
       <c r="C68" s="54">
-        <v>1468</v>
+        <v>1491</v>
       </c>
       <c r="D68" s="55">
-        <v>1294</v>
+        <v>1267</v>
       </c>
       <c r="E68" s="55">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="F68" s="56">
         <v>4848</v>
       </c>
       <c r="G68" s="57">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="H68" s="58">
-        <v>21.7</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I68" s="59">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="J68" s="60">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="K68" s="57">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="L68" s="58">
         <v>0.11</v>
@@ -4303,31 +4303,31 @@
         <v>34</v>
       </c>
       <c r="B69" s="53">
-        <v>1832</v>
+        <v>1854</v>
       </c>
       <c r="C69" s="54">
-        <v>1661</v>
+        <v>1678</v>
       </c>
       <c r="D69" s="55">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="E69" s="55">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F69" s="56">
         <v>4558</v>
       </c>
       <c r="G69" s="57">
-        <v>30.6</v>
+        <v>29.7</v>
       </c>
       <c r="H69" s="58">
-        <v>13.4</v>
+        <v>12.5</v>
       </c>
       <c r="I69" s="59">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J69" s="60">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="K69" s="57">
         <v>0.22</v>
@@ -4359,34 +4359,34 @@
         <v>35</v>
       </c>
       <c r="B70" s="38">
-        <v>1519</v>
+        <v>1528</v>
       </c>
       <c r="C70" s="39">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="D70" s="40">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E70" s="40">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F70" s="41">
         <v>2877</v>
       </c>
       <c r="G70" s="42">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H70" s="43">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I70" s="48">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="J70" s="49">
         <v>0.49</v>
       </c>
       <c r="K70" s="42">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L70" s="43">
         <v>0.02</v>
@@ -4415,25 +4415,25 @@
         <v>36</v>
       </c>
       <c r="B71" s="38">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="C71" s="39">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D71" s="40">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E71" s="40">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F71" s="41">
         <v>2216</v>
       </c>
       <c r="G71" s="42">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H71" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I71" s="48">
         <v>0.54</v>
@@ -4471,31 +4471,31 @@
         <v>37</v>
       </c>
       <c r="B72" s="38">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C72" s="39">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D72" s="40">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E72" s="40">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F72" s="41">
         <v>1840</v>
       </c>
       <c r="G72" s="42">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H72" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I72" s="48">
         <v>0.46</v>
       </c>
       <c r="J72" s="49">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K72" s="42">
         <v>0.01</v>
@@ -4527,25 +4527,25 @@
         <v>38</v>
       </c>
       <c r="B73" s="38">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C73" s="39">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D73" s="40">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E73" s="40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F73" s="41">
         <v>1414</v>
       </c>
       <c r="G73" s="42">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H73" s="43">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I73" s="48">
         <v>0.35</v>
@@ -4583,25 +4583,25 @@
         <v>39</v>
       </c>
       <c r="B74" s="63">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C74" s="64">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D74" s="65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E74" s="65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="66">
         <v>969</v>
       </c>
       <c r="G74" s="67">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H74" s="68">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I74" s="69">
         <v>0.25</v>
@@ -4639,25 +4639,25 @@
         <v>40</v>
       </c>
       <c r="B75" s="73">
-        <v>24209</v>
+        <v>24438</v>
       </c>
       <c r="C75" s="74">
-        <v>23400</v>
+        <v>23641</v>
       </c>
       <c r="D75" s="75">
-        <v>5863</v>
+        <v>5633</v>
       </c>
       <c r="E75" s="75">
-        <v>5354</v>
+        <v>5114</v>
       </c>
       <c r="F75" s="76">
-        <v>58826</v>
+        <v>58825</v>
       </c>
       <c r="G75" s="77">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="H75" s="78">
-        <v>18.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="I75" s="79"/>
       <c r="J75" s="79"/>
@@ -4669,7 +4669,7 @@
         <v>41</v>
       </c>
       <c r="B77" s="80">
-        <v>47609</v>
+        <v>48079</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>42</v>
       </c>
       <c r="B78" s="80">
-        <v>11217</v>
+        <v>10747</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4685,7 +4685,7 @@
         <v>43</v>
       </c>
       <c r="B79" s="80">
-        <v>58826</v>
+        <v>58825</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5002,25 +5002,25 @@
         <v>16</v>
       </c>
       <c r="B96" s="38">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C96" s="39">
         <v>132</v>
       </c>
       <c r="D96" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" s="41">
         <v>437</v>
       </c>
       <c r="G96" s="42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H96" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I96" s="44">
         <v>0.06</v>
@@ -5035,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="M96" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N96" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O96" s="42">
         <v>65</v>
@@ -5058,13 +5058,13 @@
         <v>17</v>
       </c>
       <c r="B97" s="38">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C97" s="39">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D97" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E97" s="40">
         <v>3</v>
@@ -5073,10 +5073,10 @@
         <v>284</v>
       </c>
       <c r="G97" s="42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H97" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I97" s="48">
         <v>0.04</v>
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="M97" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N97" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O97" s="42">
         <v>65</v>
@@ -5114,25 +5114,25 @@
         <v>18</v>
       </c>
       <c r="B98" s="38">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C98" s="39">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D98" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" s="41">
         <v>226</v>
       </c>
       <c r="G98" s="42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H98" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I98" s="48">
         <v>0.03</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="M98" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N98" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O98" s="42">
         <v>65</v>
@@ -5170,25 +5170,25 @@
         <v>19</v>
       </c>
       <c r="B99" s="38">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C99" s="39">
         <v>94</v>
       </c>
       <c r="D99" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" s="41">
         <v>194</v>
       </c>
       <c r="G99" s="42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H99" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I99" s="48">
         <v>0.02</v>
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="M99" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N99" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O99" s="42">
         <v>65</v>
@@ -5229,22 +5229,22 @@
         <v>102</v>
       </c>
       <c r="C100" s="39">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D100" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F100" s="41">
         <v>327</v>
       </c>
       <c r="G100" s="42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H100" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I100" s="48">
         <v>0.02</v>
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N100" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O100" s="42">
         <v>65</v>
@@ -5282,25 +5282,25 @@
         <v>21</v>
       </c>
       <c r="B101" s="38">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C101" s="39">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D101" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E101" s="40">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F101" s="41">
         <v>936</v>
       </c>
       <c r="G101" s="42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H101" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I101" s="48">
         <v>0.06</v>
@@ -5312,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="L101" s="43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M101" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N101" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O101" s="42">
         <v>65</v>
@@ -5338,43 +5338,43 @@
         <v>22</v>
       </c>
       <c r="B102" s="38">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="C102" s="39">
-        <v>1443</v>
+        <v>1463</v>
       </c>
       <c r="D102" s="40">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E102" s="40">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F102" s="41">
         <v>2589</v>
       </c>
       <c r="G102" s="42">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H102" s="43">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="I102" s="48">
         <v>0.19</v>
       </c>
       <c r="J102" s="49">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="K102" s="42">
         <v>0.01</v>
       </c>
       <c r="L102" s="43">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M102" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N102" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O102" s="42">
         <v>65</v>
@@ -5394,25 +5394,25 @@
         <v>23</v>
       </c>
       <c r="B103" s="53">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="C103" s="54">
-        <v>1607</v>
+        <v>1638</v>
       </c>
       <c r="D103" s="55">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E103" s="55">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="F103" s="56">
         <v>3275</v>
       </c>
       <c r="G103" s="57">
-        <v>10.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H103" s="58">
-        <v>23.8</v>
+        <v>22.3</v>
       </c>
       <c r="I103" s="59">
         <v>0.22</v>
@@ -5424,13 +5424,13 @@
         <v>0.03</v>
       </c>
       <c r="L103" s="58">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="M103" s="59">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N103" s="60">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O103" s="57">
         <v>65</v>
@@ -5450,25 +5450,25 @@
         <v>24</v>
       </c>
       <c r="B104" s="53">
-        <v>1092</v>
+        <v>1108</v>
       </c>
       <c r="C104" s="54">
-        <v>1557</v>
+        <v>1587</v>
       </c>
       <c r="D104" s="55">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E104" s="55">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="F104" s="56">
         <v>3233</v>
       </c>
       <c r="G104" s="57">
-        <v>10.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H104" s="58">
-        <v>22.6</v>
+        <v>21.1</v>
       </c>
       <c r="I104" s="59">
         <v>0.23</v>
@@ -5477,16 +5477,16 @@
         <v>0.33</v>
       </c>
       <c r="K104" s="57">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L104" s="58">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="M104" s="59">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N104" s="60">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O104" s="57">
         <v>65</v>
@@ -5506,43 +5506,43 @@
         <v>25</v>
       </c>
       <c r="B105" s="53">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="C105" s="54">
-        <v>1164</v>
+        <v>1185</v>
       </c>
       <c r="D105" s="55">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E105" s="55">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F105" s="56">
         <v>2229</v>
       </c>
       <c r="G105" s="57">
-        <v>10.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H105" s="58">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="I105" s="59">
         <v>0.16</v>
       </c>
       <c r="J105" s="60">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="K105" s="57">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L105" s="58">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M105" s="59">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N105" s="60">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O105" s="57">
         <v>65</v>
@@ -5562,25 +5562,25 @@
         <v>26</v>
       </c>
       <c r="B106" s="38">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="C106" s="39">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="D106" s="40">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E106" s="40">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F106" s="41">
         <v>2053</v>
       </c>
       <c r="G106" s="42">
-        <v>5.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H106" s="43">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="I106" s="48">
         <v>0.18</v>
@@ -5595,10 +5595,10 @@
         <v>0.02</v>
       </c>
       <c r="M106" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N106" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O106" s="42">
         <v>65</v>
@@ -5618,25 +5618,25 @@
         <v>27</v>
       </c>
       <c r="B107" s="38">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="C107" s="39">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="D107" s="40">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E107" s="40">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F107" s="41">
         <v>2205</v>
       </c>
       <c r="G107" s="42">
+        <v>7.3</v>
+      </c>
+      <c r="H107" s="43">
         <v>8.4</v>
-      </c>
-      <c r="H107" s="43">
-        <v>9.6</v>
       </c>
       <c r="I107" s="48">
         <v>0.2</v>
@@ -5651,10 +5651,10 @@
         <v>0.03</v>
       </c>
       <c r="M107" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N107" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O107" s="42">
         <v>65</v>
@@ -5674,25 +5674,25 @@
         <v>28</v>
       </c>
       <c r="B108" s="38">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="C108" s="39">
-        <v>1048</v>
+        <v>1062</v>
       </c>
       <c r="D108" s="40">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E108" s="40">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F108" s="41">
         <v>2350</v>
       </c>
       <c r="G108" s="42">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="H108" s="43">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="I108" s="48">
         <v>0.23</v>
@@ -5707,10 +5707,10 @@
         <v>0.03</v>
       </c>
       <c r="M108" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N108" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O108" s="42">
         <v>65</v>
@@ -5730,25 +5730,25 @@
         <v>29</v>
       </c>
       <c r="B109" s="38">
-        <v>1088</v>
+        <v>1102</v>
       </c>
       <c r="C109" s="39">
-        <v>1056</v>
+        <v>1069</v>
       </c>
       <c r="D109" s="40">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E109" s="40">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F109" s="41">
         <v>2373</v>
       </c>
       <c r="G109" s="42">
-        <v>9.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="H109" s="43">
-        <v>9.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="I109" s="48">
         <v>0.23</v>
@@ -5763,10 +5763,10 @@
         <v>0.03</v>
       </c>
       <c r="M109" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N109" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O109" s="42">
         <v>65</v>
@@ -5786,25 +5786,25 @@
         <v>30</v>
       </c>
       <c r="B110" s="38">
-        <v>1247</v>
+        <v>1261</v>
       </c>
       <c r="C110" s="39">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="D110" s="40">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E110" s="40">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F110" s="41">
         <v>2507</v>
       </c>
       <c r="G110" s="42">
-        <v>9.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H110" s="43">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="I110" s="48">
         <v>0.26</v>
@@ -5813,16 +5813,16 @@
         <v>0.22</v>
       </c>
       <c r="K110" s="42">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L110" s="43">
         <v>0.02</v>
       </c>
       <c r="M110" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N110" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O110" s="42">
         <v>65</v>
@@ -5842,25 +5842,25 @@
         <v>31</v>
       </c>
       <c r="B111" s="38">
-        <v>1287</v>
+        <v>1311</v>
       </c>
       <c r="C111" s="39">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="D111" s="40">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="E111" s="40">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F111" s="41">
         <v>2710</v>
       </c>
       <c r="G111" s="42">
-        <v>17.2</v>
+        <v>15.6</v>
       </c>
       <c r="H111" s="43">
-        <v>13.1</v>
+        <v>11.6</v>
       </c>
       <c r="I111" s="48">
         <v>0.27</v>
@@ -5875,10 +5875,10 @@
         <v>0.04</v>
       </c>
       <c r="M111" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N111" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O111" s="42">
         <v>65</v>
@@ -5898,43 +5898,43 @@
         <v>32</v>
       </c>
       <c r="B112" s="53">
-        <v>1687</v>
+        <v>1723</v>
       </c>
       <c r="C112" s="54">
-        <v>1339</v>
+        <v>1363</v>
       </c>
       <c r="D112" s="55">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="E112" s="55">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F112" s="56">
         <v>3882</v>
       </c>
       <c r="G112" s="57">
-        <v>27</v>
+        <v>25.4</v>
       </c>
       <c r="H112" s="58">
-        <v>14.9</v>
+        <v>13.3</v>
       </c>
       <c r="I112" s="59">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="J112" s="60">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K112" s="57">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L112" s="58">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M112" s="59">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N112" s="60">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O112" s="57">
         <v>65</v>
@@ -5954,43 +5954,43 @@
         <v>33</v>
       </c>
       <c r="B113" s="53">
-        <v>1735</v>
+        <v>1772</v>
       </c>
       <c r="C113" s="54">
-        <v>1379</v>
+        <v>1405</v>
       </c>
       <c r="D113" s="55">
-        <v>688</v>
+        <v>651</v>
       </c>
       <c r="E113" s="55">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="F113" s="56">
         <v>4057</v>
       </c>
       <c r="G113" s="57">
-        <v>28.4</v>
+        <v>26.9</v>
       </c>
       <c r="H113" s="58">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="I113" s="59">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="J113" s="60">
         <v>0.28999999999999998</v>
       </c>
       <c r="K113" s="57">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="L113" s="58">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M113" s="59">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N113" s="60">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O113" s="57">
         <v>65</v>
@@ -6010,43 +6010,43 @@
         <v>34</v>
       </c>
       <c r="B114" s="53">
-        <v>1689</v>
+        <v>1720</v>
       </c>
       <c r="C114" s="54">
-        <v>1507</v>
+        <v>1525</v>
       </c>
       <c r="D114" s="55">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="E114" s="55">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F114" s="56">
         <v>3793</v>
       </c>
       <c r="G114" s="57">
-        <v>20.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H114" s="58">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I114" s="59">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="J114" s="60">
         <v>0.32</v>
       </c>
       <c r="K114" s="57">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L114" s="58">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M114" s="59">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N114" s="60">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O114" s="57">
         <v>65</v>
@@ -6066,25 +6066,25 @@
         <v>35</v>
       </c>
       <c r="B115" s="38">
-        <v>1250</v>
+        <v>1259</v>
       </c>
       <c r="C115" s="39">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D115" s="40">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E115" s="40">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F115" s="41">
         <v>2272</v>
       </c>
       <c r="G115" s="42">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="H115" s="43">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="I115" s="48">
         <v>0.26</v>
@@ -6099,10 +6099,10 @@
         <v>0.01</v>
       </c>
       <c r="M115" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N115" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O115" s="42">
         <v>65</v>
@@ -6122,43 +6122,43 @@
         <v>36</v>
       </c>
       <c r="B116" s="38">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="C116" s="39">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D116" s="40">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E116" s="40">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F116" s="41">
         <v>1768</v>
       </c>
       <c r="G116" s="42">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H116" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I116" s="48">
         <v>0.22</v>
       </c>
       <c r="J116" s="49">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K116" s="42">
         <v>0.01</v>
       </c>
       <c r="L116" s="43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M116" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N116" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O116" s="42">
         <v>65</v>
@@ -6178,25 +6178,25 @@
         <v>37</v>
       </c>
       <c r="B117" s="38">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C117" s="39">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D117" s="40">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E117" s="40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F117" s="41">
         <v>1472</v>
       </c>
       <c r="G117" s="42">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H117" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I117" s="48">
         <v>0.19</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="M117" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N117" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O117" s="42">
         <v>65</v>
@@ -6234,25 +6234,25 @@
         <v>38</v>
       </c>
       <c r="B118" s="38">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C118" s="39">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D118" s="40">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E118" s="40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F118" s="41">
         <v>1129</v>
       </c>
       <c r="G118" s="42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H118" s="43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I118" s="48">
         <v>0.14000000000000001</v>
@@ -6261,16 +6261,16 @@
         <v>0.09</v>
       </c>
       <c r="K118" s="42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L118" s="43">
         <v>0</v>
       </c>
       <c r="M118" s="48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N118" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O118" s="42">
         <v>65</v>
@@ -6290,25 +6290,25 @@
         <v>39</v>
       </c>
       <c r="B119" s="63">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C119" s="64">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D119" s="65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E119" s="65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F119" s="66">
         <v>777</v>
       </c>
       <c r="G119" s="67">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H119" s="68">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I119" s="69">
         <v>0.1</v>
@@ -6323,10 +6323,10 @@
         <v>0</v>
       </c>
       <c r="M119" s="69">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N119" s="70">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O119" s="67">
         <v>65</v>
@@ -6346,25 +6346,25 @@
         <v>40</v>
       </c>
       <c r="B120" s="73">
-        <v>20858</v>
+        <v>21124</v>
       </c>
       <c r="C120" s="74">
-        <v>20320</v>
+        <v>20588</v>
       </c>
       <c r="D120" s="75">
-        <v>3099</v>
+        <v>2833</v>
       </c>
       <c r="E120" s="75">
-        <v>2800</v>
+        <v>2532</v>
       </c>
       <c r="F120" s="76">
         <v>47077</v>
       </c>
       <c r="G120" s="77">
-        <v>12.9</v>
+        <v>11.8</v>
       </c>
       <c r="H120" s="78">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="I120" s="79"/>
       <c r="J120" s="79"/>
@@ -6376,7 +6376,7 @@
         <v>41</v>
       </c>
       <c r="B122" s="80">
-        <v>41178</v>
+        <v>41712</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>42</v>
       </c>
       <c r="B123" s="80">
-        <v>5899</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
